--- a/biology/Écologie/Earth_Island_Institute/Earth_Island_Institute.xlsx
+++ b/biology/Écologie/Earth_Island_Institute/Earth_Island_Institute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Earth Island Institute (EII) est un organisme caritatif environnemental fondé en 1982 par David Brower situé à Berkeley, en Californie. Elle supporte l'activisme individuel concernant les enjeux environnementaux par sponsor fiscal (en), en offrant des infrastructures et des fonds pour des projets individuels. En date de 2010, le fonds de l'EII avait 7,1 millions $ (USD).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,6 +580,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,6 +608,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
